--- a/biology/Histoire de la zoologie et de la botanique/Charles_Birch/Charles_Birch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Birch/Charles_Birch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Charles Birch (né le 8 février 1918 à Melbourne – mort le 19 décembre 2009) est un généticien australien spécialisé en démécologie. Il est également un théologien reconnu, ayant écrit sur les thèmes de science et religion. Il a remporté le prix Templeton en 1990[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Charles Birch (né le 8 février 1918 à Melbourne – mort le 19 décembre 2009) est un généticien australien spécialisé en démécologie. Il est également un théologien reconnu, ayant écrit sur les thèmes de science et religion. Il a remporté le prix Templeton en 1990.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Birch naît à Melbourne le 8 février 1918. Il est le fils de Harry Birch, un banquier d'origine néozélandaise travaillant pour l'Australia and New Zealand Banking Group, et de Nora Birch, d'origine irlandaise. Il a un frère jumeau, Sidney, et un grand frère, Hugh.
-Birch fréquente le Scotch College (en), puis se tourne vers l'agriculture à l'université de Melbourne[2]. Il y obtient un baccalauréat en Agronomie en 1939.
-Il travaille ensuite au département d'entomologie de l'université d'Adélaïde, où il obtient un doctorat en 1941[3]. Son superviseur est Herbert Andrewartha.
-En 1948, Birch enseigne au département de zoologie de l'université de Sydney[3].
+Birch fréquente le Scotch College (en), puis se tourne vers l'agriculture à l'université de Melbourne. Il y obtient un baccalauréat en Agronomie en 1939.
+Il travaille ensuite au département d'entomologie de l'université d'Adélaïde, où il obtient un doctorat en 1941. Son superviseur est Herbert Andrewartha.
+En 1948, Birch enseigne au département de zoologie de l'université de Sydney.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Positions religieuses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme théologien, Birch adhére à la théologie du process (ou des processus)  inspirée de la théorie de l'organisme d'Alfred North Whitehead, basée sur des positions panenthéistes. Il a collaboré avec John B. Cobb, autre théologien du process, sur le livre The Liberation of Life.
-Il reprend à David Ray Griffin la division contemporaine  en trois visions du monde, appelées visions mondernistes (mécaniste), postmoderne déconstructiviste et postmoderne constructive, évoluant lui-même de la première vers la troisième. La première lui parait dépassée, il rejette la deuxième, représentée par des philosophes tels que Martin Heidegger, Jacques Derrida ou Gilles Deleuze qu’il accuse d’avoir déconstruit la métaphysique au point d’extinction et Il défend  un post-modernisme constructif, qui cherche l’unité de la science, de l’éthique, de l’esthétique et de la religion[4].
+Il reprend à David Ray Griffin la division contemporaine  en trois visions du monde, appelées visions mondernistes (mécaniste), postmoderne déconstructiviste et postmoderne constructive, évoluant lui-même de la première vers la troisième. La première lui parait dépassée, il rejette la deuxième, représentée par des philosophes tels que Martin Heidegger, Jacques Derrida ou Gilles Deleuze qu’il accuse d’avoir déconstruit la métaphysique au point d’extinction et Il défend  un post-modernisme constructif, qui cherche l’unité de la science, de l’éthique, de l’esthétique et de la religion.
 </t>
         </is>
       </c>
@@ -577,12 +593,14 @@
           <t>Engagement au sein du Conseil œcuménique des Églises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Membre actif du conseil œcuménique des Églises, Birch fut pendant vingt ans membre de son comité Église et société, chargé de fournir des recommandations sur les questions sociales et politiques suscitées par les sciences[5].
-En 1974, à Bucarest, Birch coorganise une réunion d’un atelier de travail  avec Jørgen Randers, co-auteur du livre The Limits to Growth (Halte à la croissance!) sur le thème des limites de la croissance. Face à l’hostilité des délégués du tiers-monde qui craignaient que les occidentaux les empêchent de se développer, Randers invente l’expression Ecologically sustainable society (Société écologiquement durable). Le conseil popularise l’idée à travers le slogan de société juste, participative et durable[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre actif du conseil œcuménique des Églises, Birch fut pendant vingt ans membre de son comité Église et société, chargé de fournir des recommandations sur les questions sociales et politiques suscitées par les sciences.
+En 1974, à Bucarest, Birch coorganise une réunion d’un atelier de travail  avec Jørgen Randers, co-auteur du livre The Limits to Growth (Halte à la croissance!) sur le thème des limites de la croissance. Face à l’hostilité des délégués du tiers-monde qui craignaient que les occidentaux les empêchent de se développer, Randers invente l’expression Ecologically sustainable society (Société écologiquement durable). Le conseil popularise l’idée à travers le slogan de société juste, participative et durable.
 Ce témoignage suggère un lien direct entre la notion d’état économiquement stable, parfois surnommé croissance zéro du club de Rome et la notion moderne de durabilité (sustainability) dans le contexte écologique.
-La nécrologie[7] publiée par le conseil en son honneur mentionne qu’en 1975, lors de l’assemblée de Nairobi, Birch fait une promotion éloquente du concept de durabilité (sustainability). Après une analyse glaçante des menaces pesant sur l’humanité, il défend l’idée d’un dé-développement du monde développé et définit le but à atteindre celui d’une société juste et durable, nécessitant un changement profond de notre relation à la nature.
+La nécrologie publiée par le conseil en son honneur mentionne qu’en 1975, lors de l’assemblée de Nairobi, Birch fait une promotion éloquente du concept de durabilité (sustainability). Après une analyse glaçante des menaces pesant sur l’humanité, il défend l’idée d’un dé-développement du monde développé et définit le but à atteindre celui d’une société juste et durable, nécessitant un changement profond de notre relation à la nature.
 </t>
         </is>
       </c>
@@ -611,31 +629,208 @@
           <t>Personnalités l'ayant influencé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans ses mémoires[8], Birch revendique les influences suivantes :
-Biologistes évolutionnaires
-Theodosius Dobzhansky
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ses mémoires, Birch revendique les influences suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_Birch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Birch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités l'ayant influencé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biologistes évolutionnaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Theodosius Dobzhansky
 J.B.S. Haldane
 Conrad H. Waddington
 Sewall Wright
 Wilfred E. Agar
-Écologistes animaliers
-Charles Elton
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charles_Birch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Birch</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités l'ayant influencé</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Écologistes animaliers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Elton
 Herbert George Andrewartha
 Thomas Park
 Paul and Anna Ehrlich
-Environmental ethicists
-John B. Cobb
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charles_Birch</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Birch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités l'ayant influencé</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Environmental ethicists</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John B. Cobb
 David Griffin
-Philosophes des religions
-Harry Emerson Fosdick
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charles_Birch</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Birch</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités l'ayant influencé</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Philosophes des religions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harry Emerson Fosdick
 Charles Hartsthorne
 Paul Tillich
 Daniel Day Williams
 Reinhold Niebuhr
-Science et religions
-Carl von Weizsäcker
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charles_Birch</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Birch</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités l'ayant influencé</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Science et religions</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl von Weizsäcker
 Margaret Mead
 John Habgood
 Ian Barbour
@@ -643,31 +838,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Charles_Birch</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charles_Birch</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Charles_Birch</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Birch</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>(en) The Distribution and Abundance of Animals, avec H. G. Andrewartha. University of Chicago Press, 1954
 (en) Nature and God, SCM Press, 1965
